--- a/db/AiCity-36-Suggestion.xlsx
+++ b/db/AiCity-36-Suggestion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A40AC1-FEC5-0444-AD14-43DCDCCC9708}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC90FD5-FA96-C042-B1FC-F69CF24C0011}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="11240" windowWidth="37400" windowHeight="17560" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
+    <workbookView xWindow="2380" yWindow="2160" windowWidth="37400" windowHeight="17560" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>2021/1/1 下午 4:15:23</t>
   </si>
@@ -182,6 +182,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>20210413A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社區住戶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社區網站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社區向外拋棄煙蒂，煙灰，造成二樓住戶環境困擾。自行在樓梯間貼提醒標示。但建議在社區建立下面標準作業程序，作為未來執行準則。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;遇環境整潔相關問題，可以使用社區官方聯繫軟件 “今網智生活“ 社區服務/意見反應 提報相關問題。或到大廳櫃檯填寫意見表正式提出問題。本案案例是二樓住戶遭受樓上任意拋下的煙蒂與煙灰 應該將時間, 地點做詳細陳述, 最好有佐證照片。 &lt;/li&gt;
+   &lt;li&gt; 依據本案範例, 貼文時段剛好有某樓層進行裝潢施工。管理中心應該通知該裝潢戶主 查明 是否是施工人員造成？ &lt;/li&gt;
+   &lt;li&gt; 依據 &lt;a href="https://tcwang.github.io/AiCity2019/AiCityB-35-Regulation.html#Menu-B7"&gt;裝潢(修)施工管理辦法&lt;/a&gt;: 
+        &lt;ul&gt;    
+               &lt;li&gt;第三條 - 17項 施工人員不得隨地丟擲煙蒂·垃圾、任意便溺、吐檳榔汁等破壞環境之行為·違者罰款新台幣貳仟元整·並自行清除&lt;/li&gt;
+               &lt;li&gt;第四條: 如因施工影響第三者之安全、健康或權益時,應由裝潢(修)戶與其承包商共負連帶責任。&lt;/li&gt;
+               &lt;li&gt;第六條:承包商及其施工人員若有違反本管理辦法規定,經本社區管理中心勸導亦不改正時,本社區管理中心得勒令其停工並沒收装潢保證金,亦可請住戶更换承包商。&lt;/li&gt;
+       &lt;/ul&gt;
+   &lt;/li&gt;
+   &lt;li&gt;管理委員會應該協助管理中心，建立標準作業流程。並明確制定與授權給管理中心依據SOP執行。並定期查驗執行狀況。&lt;/li&gt;
+   &lt;li&gt;管理中心應該落實社區規約的執行, 並將處理結果能公告讓所有人能有所依循. 例如&lt;a href="https://tcwang.github.io/AiCity2019/AiCityB-35-Regulation.html#Menu-B2"&gt;社區停車場管理辦法&lt;/a&gt; 執行到位，最好如社區網頁 將容易違規之案例使用照片說明 &lt;/li&gt;
+   &lt;li&gt;住戶遇到相關事件, 最好使用 Facebook &lt;a href="https://www.facebook.com/groups/AiCITY2020"&gt; 樂捷市好鄰居&lt;/a&gt; 等電子化交流管道, 自行張貼在電梯間也同樣是違規行為, 應該避免. &lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社區內的環境維護,如何執行？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -209,8 +246,14 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>重劃區的環境清潔，請予改善！</t>
-    </r>
+      <t>重劃區的環境清潔,請予改善！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住戶張貼在電梯間的提醒：&lt;br&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210413-01.jpg" class="img-fluid mr-1 mb-1" style="height:400px"&gt;
+&lt;br&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -241,7 +284,7 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>環境現況：</t>
+      <t>環境原有狀況：</t>
     </r>
     <r>
       <rPr>
@@ -297,7 +340,7 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">經過義工整理的一小段：&lt;br&gt;
+      <t xml:space="preserve">經過義工整理後 改善狀況：&lt;br&gt;
 </t>
     </r>
     <r>
@@ -308,7 +351,10 @@
         <family val="2"/>
       </rPr>
       <t>&lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-21.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;
-&lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-22.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;&lt;br&gt;</t>
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-24.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-22.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-23.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;
+&lt;br&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,6 +442,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -712,23 +767,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BF8730-3384-6948-B66D-EC2DE92401CC}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
     <col min="9" max="9" width="82.1640625" customWidth="1"/>
     <col min="10" max="10" width="77.6640625" customWidth="1"/>
   </cols>
@@ -771,49 +827,81 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="266">
+    <row r="2" spans="1:20" ht="409.6">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8">
+        <v>44299</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8">
+        <v>44299</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="345">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="2">
         <v>44197</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/db/AiCity-36-Suggestion.xlsx
+++ b/db/AiCity-36-Suggestion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC90FD5-FA96-C042-B1FC-F69CF24C0011}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0151A49E-60F9-6D43-BD75-6D3C1D624DBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="2160" windowWidth="37400" windowHeight="17560" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
+    <workbookView xWindow="4000" yWindow="11800" windowWidth="37400" windowHeight="17560" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -350,10 +350,70 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-21.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;
+      <t xml:space="preserve">&lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-21.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;
 &lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-24.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;
 &lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-22.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;
 &lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-23.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;
+&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在樂學路上有兩個大型廢棄輪胎被拋棄路旁多時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>義工於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4/11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">通報里長協助處理，里長已於三個工作日內完成清運。&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-25.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;
 &lt;br&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -770,7 +830,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
@@ -859,7 +919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="345">
+    <row r="3" spans="1:20" ht="397">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>

--- a/db/AiCity-36-Suggestion.xlsx
+++ b/db/AiCity-36-Suggestion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0151A49E-60F9-6D43-BD75-6D3C1D624DBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D642CA-E858-9A48-8643-0A77296BFE92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="11800" windowWidth="37400" windowHeight="17560" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
+    <workbookView xWindow="4000" yWindow="11240" windowWidth="37400" windowHeight="17560" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,48 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-25.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;
+      <t xml:space="preserve">&lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-25.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;
+&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台北國際村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">期工地設有自行管理的垃圾收集。對附近環境管理會有幫助。對有社會責任的建商應該予以鼓勵。&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-26.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;
 &lt;br&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -842,7 +883,7 @@
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" customWidth="1"/>
     <col min="8" max="8" width="30.6640625" customWidth="1"/>
     <col min="9" max="9" width="82.1640625" customWidth="1"/>
@@ -919,7 +960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="397">
+    <row r="3" spans="1:20" ht="409.6">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>

--- a/db/AiCity-36-Suggestion.xlsx
+++ b/db/AiCity-36-Suggestion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D642CA-E858-9A48-8643-0A77296BFE92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF8EB6-CC39-A04A-81C0-72FBE38D03C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4000" yWindow="11240" windowWidth="37400" windowHeight="17560" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
   </bookViews>
@@ -455,6 +455,7 @@
         <family val="2"/>
       </rPr>
       <t>&lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-26.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-27.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;
 &lt;br&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>

--- a/db/AiCity-36-Suggestion.xlsx
+++ b/db/AiCity-36-Suggestion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF8EB6-CC39-A04A-81C0-72FBE38D03C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7ADE7C-E75D-7943-9200-679AB264BEA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="11240" windowWidth="37400" windowHeight="17560" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
+    <workbookView xWindow="13620" yWindow="6600" windowWidth="37400" windowHeight="17560" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>2021/1/1 下午 4:15:23</t>
   </si>
@@ -458,6 +458,51 @@
 &lt;img src="fig/fig-Suggestion/AiCity-951-S20210101A-27.jpg" class="img-fluid mr-1 mb-1" style="width:400px"&gt;
 &lt;br&gt;</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社區交通安全的強化, 對危險因子的管理增訂至住戶公約。請住戶配合執行！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社區交通意外的防範,社區公約增訂！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">長庚醫護社區的車輛有許多會經由長慶三階西行，車速也相當快。在社區車道出口 及 長慶三街與樂學路交口依據道路管理規則都標示為紅線。但目前在紅線上違規停車已成常態, 往往在出口或轉角遮擋開車的視線是重大危險因子。
+對社區交通危險隱患的提醒與重申一般性交通規則包含：
+&lt;ol&gt;
+   &lt;li&gt;紅線路段全天皆不可停車或臨時停車，故只要「停止於紅線路段」，無論時間長短、駕駛是否在車上、車輛是否熄火，均屬違規；&lt;/li&gt;
+   &lt;li&gt;地下停車場內，車速限制是 20 公里/小時 以下。&lt;/li&gt;
+&lt;/ol&gt;
+桃園市交通違規檢舉 QRcode :點擊或掃描
+&lt;a href="https://tvrweb.typd.gov.tw:3443/TTPB/D0101"&gt;
+   &lt;img  src="fig/fig-Suggestion/AiCity-951-S20210423-05.png", class="img-fluid, style="width:150px"&gt;
+&lt;/a&gt;&lt;br&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-03.jpg", class="img-fluid", style="width:600px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-04.jpg", class="img-fluid", style="width:600px"&gt;&lt;br&gt;
+車庫出口 紅線區域提醒。&lt;br&gt;&lt;br&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年4月份管理委員會決議：增加社區規約
+&lt;ol&gt;
+   &lt;li&gt;為維護社區住戶路人安全,禁止把汽、機車停留在車道一樓去丟(倒)垃圾。第一次勸導公告、第二次開罰$1000元(含連續開罰)&lt;/li&gt;
+   &lt;li&gt;為維護社區住戶及用路安全,禁止騎車在本社區騎樓上,第一次勸導公告、第二次開罰$1000元(含連續開罰)。&lt;/li&gt;
+&lt;/ol&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-01.jpg", class="img-fluid", style="width:600px"&gt;&lt;br&gt;
+騎樓地區-禁止騎車。&lt;br&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-02.jpg", class="img-fluid", style="width:600px"&gt;&lt;br&gt;
+車道上-禁止臨時停車。&lt;br&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -869,13 +914,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BF8730-3384-6948-B66D-EC2DE92401CC}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -883,8 +928,8 @@
     <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" customWidth="1"/>
     <col min="8" max="8" width="30.6640625" customWidth="1"/>
     <col min="9" max="9" width="82.1640625" customWidth="1"/>
@@ -929,81 +974,113 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="409.6">
+    <row r="2" spans="1:20" ht="320">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="8">
-        <v>44299</v>
+        <v>43944</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F2" s="8">
-        <v>44299</v>
+        <v>44309</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="409.6">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8">
+        <v>44299</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8">
+        <v>44299</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="409.6">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>44197</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/db/AiCity-36-Suggestion.xlsx
+++ b/db/AiCity-36-Suggestion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7ADE7C-E75D-7943-9200-679AB264BEA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C44270-B531-C14C-87D9-49847696424C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="6600" windowWidth="37400" windowHeight="17560" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
+    <workbookView xWindow="32720" yWindow="11000" windowWidth="37400" windowHeight="17560" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>2021/1/1 下午 4:15:23</t>
   </si>
@@ -42,9 +42,6 @@
     <t>社區義工</t>
   </si>
   <si>
-    <t>義工團</t>
-  </si>
-  <si>
     <t>A7重劃區中, 長庚里區域內已有兩個社區共有有數百戶居民進住。但目前周遭環境卻是隨處垃圾。部分區域已開始有大型廢棄物囤積。對比隔鄰樂善里打掃的非常整潔。希望長庚里里長除長庚醫療社區外，能為小部分的長庚里A7重劃區的住戶爭取必要的環境清潔分配。</t>
   </si>
   <si>
@@ -187,10 +184,6 @@
   </si>
   <si>
     <t>社區住戶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社區網站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -469,40 +462,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>社區交通安全的強化, 對危險因子的管理增訂至住戶公約。請住戶配合執行！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社區交通意外的防範,社區公約增訂！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">長庚醫護社區的車輛有許多會經由長慶三階西行，車速也相當快。在社區車道出口 及 長慶三街與樂學路交口依據道路管理規則都標示為紅線。但目前在紅線上違規停車已成常態, 往往在出口或轉角遮擋開車的視線是重大危險因子。
-對社區交通危險隱患的提醒與重申一般性交通規則包含：
+    <t>社區環保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增強交通意外的防範,社區公約增訂！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2021年4月份管理委員會決議：增加社區規約
+&lt;ol&gt;
+   &lt;li&gt;為維護社區住戶路人安全,禁止把汽、機車停留在車道一樓去丟(倒)垃圾。第一次勸導公告、第二次開罰$1000元(含連續開罰)&lt;/li&gt;
+   &lt;li&gt;為維護社區住戶及用路安全,禁止騎車在本社區騎樓上,第一次勸導公告、第二次開罰$1000元(含連續開罰)。&lt;/li&gt;
+&lt;/ol&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F4.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-B1.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-B2.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;br&gt;
+車道上-禁止臨時停車。&lt;br&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F5.jpeg", class="img-fluid", style="width:600px"&gt;&lt;br&gt;
+騎樓地區-禁止騎車。&lt;br&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">其他交通安全建議改善事項
 &lt;ol&gt;
    &lt;li&gt;紅線路段全天皆不可停車或臨時停車，故只要「停止於紅線路段」，無論時間長短、駕駛是否在車上、車輛是否熄火，均屬違規；&lt;/li&gt;
-   &lt;li&gt;地下停車場內，車速限制是 20 公里/小時 以下。&lt;/li&gt;
+   &lt;li&gt;社區路口紅線區的違規停車， 可使用桃園交通違規檢舉QRCode 直接向市警交通隊舉發。&lt;/li&gt;
+   &lt;li&gt;騎樓騎車包含奇幻山莊的一樓住戶，需要雙方管委會能有共同規範。必要時使用柵欄, 放大標示警語或逐戶通知等有效管理措施。&lt;/li&gt;
 &lt;/ol&gt;
 桃園市交通違規檢舉 QRcode :點擊或掃描
 &lt;a href="https://tvrweb.typd.gov.tw:3443/TTPB/D0101"&gt;
    &lt;img  src="fig/fig-Suggestion/AiCity-951-S20210423-05.png", class="img-fluid, style="width:150px"&gt;
 &lt;/a&gt;&lt;br&gt;
-&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-03.jpg", class="img-fluid", style="width:600px"&gt;
-&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-04.jpg", class="img-fluid", style="width:600px"&gt;&lt;br&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F2.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F3.jpeg", class="img-fluid", style="width:600px"&gt;&lt;br&gt;
 車庫出口 紅線區域提醒。&lt;br&gt;&lt;br&gt;
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021年4月份管理委員會決議：增加社區規約
-&lt;ol&gt;
-   &lt;li&gt;為維護社區住戶路人安全,禁止把汽、機車停留在車道一樓去丟(倒)垃圾。第一次勸導公告、第二次開罰$1000元(含連續開罰)&lt;/li&gt;
-   &lt;li&gt;為維護社區住戶及用路安全,禁止騎車在本社區騎樓上,第一次勸導公告、第二次開罰$1000元(含連續開罰)。&lt;/li&gt;
-&lt;/ol&gt;
-&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-01.jpg", class="img-fluid", style="width:600px"&gt;&lt;br&gt;
-騎樓地區-禁止騎車。&lt;br&gt;
-&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-02.jpg", class="img-fluid", style="width:600px"&gt;&lt;br&gt;
-車道上-禁止臨時停車。&lt;br&gt;</t>
+    <t xml:space="preserve">為社區交通安全的強化, 對相關交通危險因子的改善檢討：
+      &lt;ul&gt;
+         &lt;li&gt;開車/騎機車到1樓出口, 下車丟垃圾。會造成後面車堵塞或用左車道超越，影響對車安全。 &lt;/li&gt;
+         &lt;li&gt;住戶或外賣人員騎機車在騎樓行駛, 影響行人幼童走路安全。&lt;/li&gt;
+         &lt;li&gt;地下停車場內上下樓層入口，暫停上下車。因旋轉斜坡車道看不到而造成意外。&lt;/li&gt;
+         &lt;li&gt;長慶三街及樂學路目前是大型砂石車，工程車的主要道路。在道路口紅線區已經常態性有汽車做停車使用。因駕駛人進出路口的視線被違規車遮擋。影響行車安全之主因。&lt;/li&gt;
+      &lt;/ul&gt;
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,7 +928,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -938,112 +946,112 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" ht="320">
+    <row r="2" spans="1:20" ht="335">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="8">
         <v>43944</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="8">
         <v>44309</v>
       </c>
       <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="409.6">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8">
         <v>44299</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="8">
         <v>44299</v>
       </c>
       <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="409.6">
       <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -1051,26 +1059,26 @@
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
+      <c r="E4" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>44197</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>

--- a/db/AiCity-36-Suggestion.xlsx
+++ b/db/AiCity-36-Suggestion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C44270-B531-C14C-87D9-49847696424C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392048A3-0B3A-7148-AF16-944DF6B53F61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32720" yWindow="11000" windowWidth="37400" windowHeight="17560" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
+    <workbookView xWindow="7180" yWindow="14300" windowWidth="50040" windowHeight="28300" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -470,22 +470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2021年4月份管理委員會決議：增加社區規約
-&lt;ol&gt;
-   &lt;li&gt;為維護社區住戶路人安全,禁止把汽、機車停留在車道一樓去丟(倒)垃圾。第一次勸導公告、第二次開罰$1000元(含連續開罰)&lt;/li&gt;
-   &lt;li&gt;為維護社區住戶及用路安全,禁止騎車在本社區騎樓上,第一次勸導公告、第二次開罰$1000元(含連續開罰)。&lt;/li&gt;
-&lt;/ol&gt;
-&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F4.jpeg", class="img-fluid", style="width:600px"&gt;
-&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-B1.jpeg", class="img-fluid", style="width:600px"&gt;
-&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-B2.jpeg", class="img-fluid", style="width:600px"&gt;
-&lt;br&gt;
-車道上-禁止臨時停車。&lt;br&gt;
-&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F5.jpeg", class="img-fluid", style="width:600px"&gt;&lt;br&gt;
-騎樓地區-禁止騎車。&lt;br&gt;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">其他交通安全建議改善事項
 &lt;ol&gt;
    &lt;li&gt;紅線路段全天皆不可停車或臨時停車，故只要「停止於紅線路段」，無論時間長短、駕駛是否在車上、車輛是否熄火，均屬違規；&lt;/li&gt;
@@ -510,6 +494,23 @@
          &lt;li&gt;地下停車場內上下樓層入口，暫停上下車。因旋轉斜坡車道看不到而造成意外。&lt;/li&gt;
          &lt;li&gt;長慶三街及樂學路目前是大型砂石車，工程車的主要道路。在道路口紅線區已經常態性有汽車做停車使用。因駕駛人進出路口的視線被違規車遮擋。影響行車安全之主因。&lt;/li&gt;
       &lt;/ul&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2021年4月份管理委員會決議：增加社區規約
+&lt;ol&gt;
+   &lt;li&gt;為維護社區住戶路人安全,禁止把汽、機車停留在車道一樓去丟(倒)垃圾。第一次勸導公告、第二次開罰$1000元(含連續開罰)&lt;/li&gt;
+   &lt;li&gt;為維護社區住戶及用路安全,禁止騎車在本社區騎樓上,第一次勸導公告、第二次開罰$1000元(含連續開罰)。&lt;/li&gt;
+&lt;/ol&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F4.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-G1.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-B1.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-B2.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;br&gt;
+車道上-禁止臨時停車。&lt;br&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F5.jpeg", class="img-fluid", style="width:600px"&gt;&lt;br&gt;
+騎樓地區-禁止騎車。&lt;br&gt;
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -928,7 +929,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1005,13 +1006,13 @@
         <v>30</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="409.6">

--- a/db/AiCity-36-Suggestion.xlsx
+++ b/db/AiCity-36-Suggestion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392048A3-0B3A-7148-AF16-944DF6B53F61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F7D0A8-1CA5-1145-B216-6F1083EBA240}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="14300" windowWidth="50040" windowHeight="28300" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="50040" windowHeight="28300" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -470,23 +470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">其他交通安全建議改善事項
-&lt;ol&gt;
-   &lt;li&gt;紅線路段全天皆不可停車或臨時停車，故只要「停止於紅線路段」，無論時間長短、駕駛是否在車上、車輛是否熄火，均屬違規；&lt;/li&gt;
-   &lt;li&gt;社區路口紅線區的違規停車， 可使用桃園交通違規檢舉QRCode 直接向市警交通隊舉發。&lt;/li&gt;
-   &lt;li&gt;騎樓騎車包含奇幻山莊的一樓住戶，需要雙方管委會能有共同規範。必要時使用柵欄, 放大標示警語或逐戶通知等有效管理措施。&lt;/li&gt;
-&lt;/ol&gt;
-桃園市交通違規檢舉 QRcode :點擊或掃描
-&lt;a href="https://tvrweb.typd.gov.tw:3443/TTPB/D0101"&gt;
-   &lt;img  src="fig/fig-Suggestion/AiCity-951-S20210423-05.png", class="img-fluid, style="width:150px"&gt;
-&lt;/a&gt;&lt;br&gt;
-&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F2.jpeg", class="img-fluid", style="width:600px"&gt;
-&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F3.jpeg", class="img-fluid", style="width:600px"&gt;&lt;br&gt;
-車庫出口 紅線區域提醒。&lt;br&gt;&lt;br&gt;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">為社區交通安全的強化, 對相關交通危險因子的改善檢討：
       &lt;ul&gt;
          &lt;li&gt;開車/騎機車到1樓出口, 下車丟垃圾。會造成後面車堵塞或用左車道超越，影響對車安全。 &lt;/li&gt;
@@ -511,6 +494,33 @@
 車道上-禁止臨時停車。&lt;br&gt;
 &lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F5.jpeg", class="img-fluid", style="width:600px"&gt;&lt;br&gt;
 騎樓地區-禁止騎車。&lt;br&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">其他交通安全建議改善事項
+&lt;ol&gt;
+   &lt;li&gt;紅線路段全天皆不可停車或臨時停車，故只要「停止於紅線路段」，無論時間長短、駕駛是否在車上、車輛是否熄火，均屬違規；&lt;/li&gt;
+   &lt;li&gt;社區路口紅線區的違規停車， 可使用桃園交通違規檢舉QRCode 直接向市警交通隊舉發。&lt;/li&gt;
+   &lt;li&gt;騎樓騎車包含奇幻山莊的一樓住戶，需要雙方管委會能有共同規範。必要時使用柵欄, 放大標示警語或逐戶通知等有效管理措施。&lt;/li&gt;
+&lt;/ol&gt;
+桃園市交通違規檢舉 QRcode :點擊或掃描
+&lt;a href="https://tvrweb.typd.gov.tw:3443/TTPB/D0101"&gt;
+   &lt;img  src="fig/fig-Suggestion/AiCity-951-S20210423-05.png", class="img-fluid, style="width:150px"&gt;
+&lt;/a&gt;&lt;br&gt;
+	桃園市政府警察局：&lt;a href="https://tvrweb.typd.gov.tw:3443/"&gt;
+	交通違規檢舉專區&lt;/a&gt; &lt;br&gt;檢舉說明
+	&lt;ol&gt;
+		&lt;li&gt;違規車輛號牌：違規車號清晰可辨及車輛顏色。&lt;/li&gt;
+		&lt;li&gt;違規事實：應攝入相關標誌、標線或地點；如為標線，顏色須清楚可辨；車輛駕駛人是否在場（以辦識該車屬臨時停車或停車之狀態&lt;/li&gt;
+		&lt;li&gt;違規時之日期及時間。&lt;/li&gt;
+	&lt;/ol&gt;
+	使用含日期地點的照相軟體作為舉證依據: 時間相機App &lt;a href="https://play.google.com/store/apps/details?id=com.jeyluta.timestampcamerafree&amp;hl=zh_TW&amp;gl=US"&gt;Google Play&lt;/a&gt;,
+	&lt;a href="https://apps.apple.com/tw/app/%E6%99%82%E9%96%93%E7%9B%B8%E6%A9%9F/id840110184"&gt;App Store&lt;/a&gt;
+&lt;br&gt;&lt;br&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F2.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F3.jpeg", class="img-fluid", style="width:600px"&gt;&lt;br&gt;
+車庫出口 紅線區域提醒。&lt;br&gt;&lt;br&gt;
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -929,7 +939,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -983,7 +993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="335">
+    <row r="2" spans="1:20" ht="409.6">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -1006,13 +1016,13 @@
         <v>30</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="409.6">

--- a/db/AiCity-36-Suggestion.xlsx
+++ b/db/AiCity-36-Suggestion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F7D0A8-1CA5-1145-B216-6F1083EBA240}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA354AB-6798-5A4E-946C-F3B0CB955013}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="50040" windowHeight="28300" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
+    <workbookView xWindow="4120" yWindow="6800" windowWidth="50040" windowHeight="28300" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -481,23 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2021年4月份管理委員會決議：增加社區規約
-&lt;ol&gt;
-   &lt;li&gt;為維護社區住戶路人安全,禁止把汽、機車停留在車道一樓去丟(倒)垃圾。第一次勸導公告、第二次開罰$1000元(含連續開罰)&lt;/li&gt;
-   &lt;li&gt;為維護社區住戶及用路安全,禁止騎車在本社區騎樓上,第一次勸導公告、第二次開罰$1000元(含連續開罰)。&lt;/li&gt;
-&lt;/ol&gt;
-&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F4.jpeg", class="img-fluid", style="width:600px"&gt;
-&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-G1.jpeg", class="img-fluid", style="width:600px"&gt;
-&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-B1.jpeg", class="img-fluid", style="width:600px"&gt;
-&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-B2.jpeg", class="img-fluid", style="width:600px"&gt;
-&lt;br&gt;
-車道上-禁止臨時停車。&lt;br&gt;
-&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F5.jpeg", class="img-fluid", style="width:600px"&gt;&lt;br&gt;
-騎樓地區-禁止騎車。&lt;br&gt;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">其他交通安全建議改善事項
 &lt;ol&gt;
    &lt;li&gt;紅線路段全天皆不可停車或臨時停車，故只要「停止於紅線路段」，無論時間長短、駕駛是否在車上、車輛是否熄火，均屬違規；&lt;/li&gt;
@@ -521,6 +504,29 @@
 &lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F2.jpeg", class="img-fluid", style="width:600px"&gt;
 &lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F3.jpeg", class="img-fluid", style="width:600px"&gt;&lt;br&gt;
 車庫出口 紅線區域提醒。&lt;br&gt;&lt;br&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2021年4月份管理委員會決議：增加社區規約
+&lt;ol&gt;
+   &lt;li&gt;為維護社區住戶路人安全,禁止把汽、機車停留在車道一樓去丟(倒)垃圾。第一次勸導公告、第二次開罰$1000元(含連續開罰)&lt;/li&gt;
+   &lt;li&gt;為維護社區住戶及用路安全,禁止騎車在本社區騎樓上,第一次勸導公告、第二次開罰$1000元(含連續開罰)。&lt;/li&gt;
+&lt;/ol&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F4.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-G1.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-B1.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-B2.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;br&gt;
+車道上-禁止臨時停車。&lt;br&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-F5.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-X5.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-X3.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-X4.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-X7.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-X8.jpeg", class="img-fluid", style="width:600px"&gt;
+&lt;br&gt;&lt;br&gt;
+騎樓地區-禁止騎車。&lt;br&gt;
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -939,7 +945,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1019,10 +1025,10 @@
         <v>31</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="409.6">

--- a/db/AiCity-36-Suggestion.xlsx
+++ b/db/AiCity-36-Suggestion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA354AB-6798-5A4E-946C-F3B0CB955013}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83A7E9C-A2CE-EC48-BD57-A1E45ECCF4D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="6800" windowWidth="50040" windowHeight="28300" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="50040" windowHeight="28300" xr2:uid="{2429D814-D3EB-0547-A821-96A9EAECCF48}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
 &lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-X7.jpeg", class="img-fluid", style="width:600px"&gt;
 &lt;img src="fig/fig-Suggestion/AiCity-951-S20210423-X8.jpeg", class="img-fluid", style="width:600px"&gt;
 &lt;br&gt;&lt;br&gt;
-騎樓地區-禁止騎車。&lt;br&gt;
+騎樓地區-禁止騎車: 提醒標示, 監控攝像與防範柵欄設置。&lt;br&gt;
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
